--- a/public/templates/exam_marks_template.xlsx
+++ b/public/templates/exam_marks_template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Student ID</t>
   </si>
@@ -19,13 +19,13 @@
     <t>Student Name</t>
   </si>
   <si>
-    <t>enrollNo</t>
+    <t>enrollmentNo</t>
   </si>
   <si>
     <t>achievedMarks</t>
   </si>
   <si>
-    <t>wasAbsent</t>
+    <t>Absent</t>
   </si>
   <si>
     <t>debarred</t>
@@ -34,16 +34,31 @@
     <t>malpractice</t>
   </si>
   <si>
-    <t>Adhiti Chettri</t>
-  </si>
-  <si>
-    <t>C18D-CI21</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>Jharna Rai</t>
+  </si>
+  <si>
+    <t>C19D-CS41</t>
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Pavitra Tewari</t>
+  </si>
+  <si>
+    <t>C19D-CS20</t>
+  </si>
+  <si>
+    <t>Sudeep Gurung</t>
+  </si>
+  <si>
+    <t>C19D-CS24</t>
+  </si>
+  <si>
+    <t>Tashi Lepcha</t>
+  </si>
+  <si>
+    <t>C19D-CS35</t>
   </si>
 </sst>
 </file>
@@ -301,14 +316,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.14"/>
-    <col customWidth="1" min="2" max="2" width="25.43"/>
-    <col customWidth="1" min="3" max="3" width="25.71"/>
-    <col customWidth="1" min="4" max="4" width="25.43"/>
-    <col customWidth="1" min="5" max="5" width="18.0"/>
-    <col customWidth="1" min="6" max="6" width="23.29"/>
-    <col customWidth="1" min="7" max="7" width="39.43"/>
-    <col customWidth="1" min="8" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="13.86"/>
+    <col customWidth="1" min="3" max="3" width="13.71"/>
+    <col customWidth="1" min="4" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -324,7 +335,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -334,9 +345,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.0" customHeight="1">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1">
-        <v>202.0</v>
+        <v>222.0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -344,24 +355,90 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="1">
+        <v>230.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="1">
+        <v>251.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="7" ht="15.0" customHeight="1"/>
     <row r="8" ht="14.25" customHeight="1"/>
     <row r="9" ht="14.25" customHeight="1"/>
     <row r="10" ht="14.25" customHeight="1"/>
